--- a/data/trans_bre/P19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>125,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,16%</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 0,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 1,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>29,56%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>508,19%</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 1,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 1,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 0,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,37 +825,37 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 1,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,95; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,97; 501,13</t>
         </is>
       </c>
     </row>
@@ -925,37 +925,37 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-13,73%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,58%</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 0,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,76%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 0,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>222,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,82%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; -0,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 0,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,51; 175,01</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,26%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 0,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,19; 304,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,5; 103,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,0; 772,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,57; 79,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-24,16%</t>
+          <t>-22,92%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,65</t>
+          <t>-3,09; 1,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>508,19%</t>
+          <t>411,56%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 0,99</t>
+          <t>-0,08; 0,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,82</t>
+          <t>-1,07; 0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,97; 501,13</t>
+          <t>-84,33; 508,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>108,58%</t>
+          <t>204,62%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,57</t>
+          <t>-0,18; 0,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-65,76%</t>
+          <t>-65,85%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,15</t>
+          <t>-1,16; 0,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,27 +1120,27 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>222,99%</t>
+          <t>64,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-34,82%</t>
+          <t>-38,87%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,67</t>
+          <t>-1,08; 1,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,22</t>
+          <t>-1,92; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,14</t>
+          <t>-2,01; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,27</t>
+          <t>-1,0; 0,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-87,51; 175,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>-47,01%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,4</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; -0,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,72</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 0,26</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>33,59%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-15,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,13; 0,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,45; 0,42</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,17; 0,33</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 0,24</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 0,22</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-35,19; 304,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-52,5; 103,84</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-72,0; 772,94</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-63,57; 79,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-63,34; 84,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P19C08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C08-Edad-trans_bre.xlsx
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 0,53</t>
+          <t>-0,8; 0,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,91</t>
+          <t>-0,48; 2,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,7</t>
+          <t>-3,37; 1,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,25</t>
+          <t>-0,56; 1,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,13</t>
+          <t>-1,08; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 0,97</t>
+          <t>-0,08; 1,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,74; 512,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,69</t>
+          <t>-0,64; 0,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,44</t>
+          <t>-0,23; 1,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,18</t>
+          <t>-0,37; 1,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 0,84</t>
+          <t>-1,1; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,95; —</t>
+          <t>-60,79; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,33; 508,34</t>
+          <t>-83,25; 622,67</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,99</t>
+          <t>-1,65; 1,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 0,66</t>
+          <t>-0,17; 0,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 0,0</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,42</t>
+          <t>-1,71; 0,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 0,15</t>
+          <t>-1,28; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,78</t>
+          <t>-1,04; 1,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 0,0</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 0,0</t>
+          <t>-1,99; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,36</t>
+          <t>-0,95; 0,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,4</t>
+          <t>0,0; 3,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; -0,44</t>
+          <t>-4,36; -0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,72</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,26</t>
+          <t>-1,26; 0,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,58</t>
+          <t>-0,15; 0,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,42</t>
+          <t>-0,44; 0,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,33</t>
+          <t>-0,16; 0,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,22</t>
+          <t>-0,46; 0,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 304,49</t>
+          <t>-35,53; 294,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 103,84</t>
+          <t>-52,14; 98,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-72,0; 772,94</t>
+          <t>-84,06; 583,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 84,84</t>
+          <t>-64,0; 93,55</t>
         </is>
       </c>
     </row>
